--- a/Products with Python/EPIX pro series/EPIX pro 47mm/RetryImporve/output.xlsx
+++ b/Products with Python/EPIX pro series/EPIX pro 47mm/RetryImporve/output.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangcooper\Documents\Python\Python\Products with Python\EPIX pro 47mm\RetryImporve\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B6B302-06F9-4D80-85E3-1D02A8320904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16140" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -55,240 +49,234 @@
     <t>Epix_Pro_ECG_FT</t>
   </si>
   <si>
+    <t>Epix_Pro_ATE_TI</t>
+  </si>
+  <si>
+    <t>Epix_Pro_FT2</t>
+  </si>
+  <si>
+    <t>Epix_Pro_HT</t>
+  </si>
+  <si>
+    <t>Epix_Pro_FT1</t>
+  </si>
+  <si>
+    <t>Epix_Pro_ALS</t>
+  </si>
+  <si>
+    <t>Epix_Pro_CT</t>
+  </si>
+  <si>
+    <t>Epix_Pro_ECG_ATE</t>
+  </si>
+  <si>
+    <t>Airtight_table</t>
+  </si>
+  <si>
+    <t>Epix_pro_RTESN</t>
+  </si>
+  <si>
+    <t>Epix_Pro_Baro</t>
+  </si>
+  <si>
     <t>ECG impedance short</t>
   </si>
   <si>
+    <t>Temperature Sensor Temperature</t>
+  </si>
+  <si>
+    <t>ANT_power 2450MHz BY REF (sapphire)</t>
+  </si>
+  <si>
+    <t>GPS_L5 by ref</t>
+  </si>
+  <si>
+    <t>GPS_ (L1 + L5) by ref</t>
+  </si>
+  <si>
+    <t>Set CTR Version 42 47</t>
+  </si>
+  <si>
+    <t>Manifest Event Test</t>
+  </si>
+  <si>
+    <t>Check Unit Type</t>
+  </si>
+  <si>
+    <t>ECG RLD 10Hz 500mV Test</t>
+  </si>
+  <si>
+    <t>電池電壓|Battery Voltage</t>
+  </si>
+  <si>
+    <t>外部電流(反插)|VEXT Current(Reverse) BL&amp;OHR On</t>
+  </si>
+  <si>
+    <t>Motor Resonant Frequency</t>
+  </si>
+  <si>
+    <t>Temperature Sensor Temperature(After)</t>
+  </si>
+  <si>
+    <t>BLE LESC test|藍芽LESC測試</t>
+  </si>
+  <si>
+    <t>006J Comparison</t>
+  </si>
+  <si>
+    <t>Fixture Temp</t>
+  </si>
+  <si>
+    <t>連續斜率異常_負壓</t>
+  </si>
+  <si>
+    <t>AFE Power Consumption data</t>
+  </si>
+  <si>
+    <t>光學心跳模組檢查|Check OHRM LED</t>
+  </si>
+  <si>
+    <t>1 ATM diff with golden</t>
+  </si>
+  <si>
+    <t>Pump to 0.5 ATM</t>
+  </si>
+  <si>
+    <t>ECG impedance open</t>
+  </si>
+  <si>
+    <t>D102 PD dark noise SpO2 dev</t>
+  </si>
+  <si>
     <t>113/440</t>
   </si>
   <si>
+    <t>35/448</t>
+  </si>
+  <si>
+    <t>29/440</t>
+  </si>
+  <si>
+    <t>16/448</t>
+  </si>
+  <si>
+    <t>15/443</t>
+  </si>
+  <si>
+    <t>12/438</t>
+  </si>
+  <si>
+    <t>12/440</t>
+  </si>
+  <si>
+    <t>12/443</t>
+  </si>
+  <si>
+    <t>11/440</t>
+  </si>
+  <si>
+    <t>9/443</t>
+  </si>
+  <si>
+    <t>9/450</t>
+  </si>
+  <si>
+    <t>8/440</t>
+  </si>
+  <si>
+    <t>9/539</t>
+  </si>
+  <si>
+    <t>7/438</t>
+  </si>
+  <si>
+    <t>7/440</t>
+  </si>
+  <si>
+    <t>6/443</t>
+  </si>
+  <si>
+    <t>5/438</t>
+  </si>
+  <si>
+    <t>5/445</t>
+  </si>
+  <si>
+    <t>5/448</t>
+  </si>
+  <si>
+    <t>5/452</t>
+  </si>
+  <si>
+    <t>4/433</t>
+  </si>
+  <si>
+    <t>4/438</t>
+  </si>
+  <si>
+    <t>4/448</t>
+  </si>
+  <si>
     <t>161/576</t>
   </si>
   <si>
-    <t>Epix_Pro_ATE_TI</t>
-  </si>
-  <si>
-    <t>Temperature Sensor Temperature</t>
-  </si>
-  <si>
-    <t>35/448</t>
-  </si>
-  <si>
-    <t>Epix_Pro_FT2</t>
-  </si>
-  <si>
-    <t>ANT_power 2450MHz BY REF (sapphire)</t>
-  </si>
-  <si>
-    <t>29/440</t>
-  </si>
-  <si>
     <t>4/619</t>
   </si>
   <si>
-    <t>Epix_Pro_HT</t>
-  </si>
-  <si>
-    <t>GPS_L5 by ref</t>
-  </si>
-  <si>
-    <t>16/448</t>
-  </si>
-  <si>
     <t>124/654</t>
   </si>
   <si>
-    <t>Epix_Pro_FT1</t>
-  </si>
-  <si>
-    <t>GPS_ (L1 + L5) by ref</t>
-  </si>
-  <si>
-    <t>15/443</t>
-  </si>
-  <si>
     <t>97/637</t>
   </si>
   <si>
-    <t>Epix_Pro_ALS</t>
-  </si>
-  <si>
-    <t>12/438</t>
-  </si>
-  <si>
-    <t>Set CTR Version 42 47</t>
-  </si>
-  <si>
-    <t>12/440</t>
-  </si>
-  <si>
-    <t>Manifest Event Test</t>
-  </si>
-  <si>
     <t>29/619</t>
   </si>
   <si>
-    <t>Check Unit Type</t>
-  </si>
-  <si>
-    <t>12/443</t>
-  </si>
-  <si>
-    <t>ECG RLD 10Hz 500mV Test</t>
-  </si>
-  <si>
-    <t>11/440</t>
-  </si>
-  <si>
     <t>84/576</t>
   </si>
   <si>
-    <t>電池電壓|Battery Voltage</t>
-  </si>
-  <si>
-    <t>9/443</t>
-  </si>
-  <si>
     <t>59/637</t>
   </si>
   <si>
-    <t>Epix_Pro_CT</t>
-  </si>
-  <si>
-    <t>9/450</t>
-  </si>
-  <si>
-    <t>外部電流(反插)|VEXT Current(Reverse) BL&amp;OHR On</t>
-  </si>
-  <si>
-    <t>8/440</t>
-  </si>
-  <si>
-    <t>Epix_Pro_ECG_ATE</t>
-  </si>
-  <si>
-    <t>Motor Resonant Frequency</t>
-  </si>
-  <si>
-    <t>9/539</t>
-  </si>
-  <si>
     <t>13/767</t>
   </si>
   <si>
-    <t>Temperature Sensor Temperature(After)</t>
-  </si>
-  <si>
-    <t>7/438</t>
-  </si>
-  <si>
-    <t>BLE LESC test|藍芽LESC測試</t>
-  </si>
-  <si>
-    <t>7/440</t>
-  </si>
-  <si>
     <t>7/619</t>
   </si>
   <si>
-    <t>006J Comparison</t>
-  </si>
-  <si>
-    <t>6/443</t>
-  </si>
-  <si>
     <t>3/637</t>
   </si>
   <si>
-    <t>Fixture Temp</t>
-  </si>
-  <si>
-    <t>5/438</t>
-  </si>
-  <si>
-    <t>Airtight_table</t>
-  </si>
-  <si>
-    <t>連續斜率異常_負壓</t>
-  </si>
-  <si>
-    <t>5/445</t>
-  </si>
-  <si>
     <t>64/644</t>
   </si>
   <si>
-    <t>AFE Power Consumption data</t>
-  </si>
-  <si>
-    <t>5/448</t>
-  </si>
-  <si>
     <t>57/765</t>
   </si>
   <si>
-    <t>Epix_pro_RTESN</t>
-  </si>
-  <si>
-    <t>光學心跳模組檢查|Check OHRM LED</t>
-  </si>
-  <si>
-    <t>5/452</t>
-  </si>
-  <si>
     <t>6/666</t>
   </si>
   <si>
-    <t>Epix_Pro_Baro</t>
-  </si>
-  <si>
-    <t>1 ATM diff with golden</t>
-  </si>
-  <si>
-    <t>4/433</t>
-  </si>
-  <si>
     <t>1/615</t>
-  </si>
-  <si>
-    <t>Pump to 0.5 ATM</t>
-  </si>
-  <si>
-    <t>ECG impedance open</t>
-  </si>
-  <si>
-    <t>4/438</t>
-  </si>
-  <si>
-    <t>D102 PD dark noise SpO2 dev</t>
-  </si>
-  <si>
-    <t>4/448</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="新細明體"/>
-      <family val="3"/>
-      <charset val="136"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -334,18 +322,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -633,25 +613,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="4" max="4" width="57.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.25" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -683,7 +652,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>17820</v>
       </c>
@@ -694,10 +663,10 @@
         <v>285</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="F2">
         <v>25.68</v>
@@ -706,7 +675,7 @@
         <v>440</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="I2">
         <v>27.95</v>
@@ -715,21 +684,21 @@
         <v>576</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>17859</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="F3">
         <v>7.81</v>
@@ -738,21 +707,21 @@
         <v>448</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>17803</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="F4">
         <v>6.59</v>
@@ -761,7 +730,7 @@
         <v>440</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="I4">
         <v>0.65</v>
@@ -770,21 +739,21 @@
         <v>619</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>17801</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C5">
         <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="F5">
         <v>3.57</v>
@@ -793,7 +762,7 @@
         <v>448</v>
       </c>
       <c r="H5" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="I5">
         <v>18.96</v>
@@ -802,21 +771,21 @@
         <v>654</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>17802</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C6">
         <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="F6">
         <v>3.39</v>
@@ -825,7 +794,7 @@
         <v>443</v>
       </c>
       <c r="H6" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="I6">
         <v>15.23</v>
@@ -834,21 +803,21 @@
         <v>637</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>17822</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C7">
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="F7">
         <v>2.74</v>
@@ -857,21 +826,21 @@
         <v>438</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>17803</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C8">
         <v>192</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="F8">
         <v>2.73</v>
@@ -880,21 +849,21 @@
         <v>440</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>17803</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C9">
         <v>247</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="F9">
         <v>2.73</v>
@@ -903,7 +872,7 @@
         <v>440</v>
       </c>
       <c r="H9" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="I9">
         <v>4.68</v>
@@ -912,21 +881,21 @@
         <v>619</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>17802</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C10">
         <v>195</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="F10">
         <v>2.71</v>
@@ -935,7 +904,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>17820</v>
       </c>
@@ -946,10 +915,10 @@
         <v>293</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="F11">
         <v>2.5</v>
@@ -958,7 +927,7 @@
         <v>440</v>
       </c>
       <c r="H11" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="I11">
         <v>14.58</v>
@@ -967,30 +936,30 @@
         <v>576</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>17802</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C12">
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="F12">
-        <v>2.0299999999999998</v>
+        <v>2.03</v>
       </c>
       <c r="G12">
         <v>443</v>
       </c>
       <c r="H12" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="I12">
         <v>9.26</v>
@@ -999,21 +968,21 @@
         <v>637</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>17800</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="C13">
         <v>60</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="F13">
         <v>2</v>
@@ -1022,21 +991,21 @@
         <v>450</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>17803</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C14">
         <v>62</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E14" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="F14">
         <v>1.82</v>
@@ -1045,21 +1014,21 @@
         <v>440</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>17858</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="C15">
         <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="E15" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F15">
         <v>1.67</v>
@@ -1068,7 +1037,7 @@
         <v>539</v>
       </c>
       <c r="H15" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="I15">
         <v>1.69</v>
@@ -1077,21 +1046,21 @@
         <v>767</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10">
       <c r="A16">
         <v>17822</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C16">
         <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="E16" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F16">
         <v>1.6</v>
@@ -1100,21 +1069,21 @@
         <v>438</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10">
       <c r="A17">
         <v>17803</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C17">
         <v>57</v>
       </c>
       <c r="D17" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="E17" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F17">
         <v>1.59</v>
@@ -1123,30 +1092,30 @@
         <v>440</v>
       </c>
       <c r="H17" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="I17">
-        <v>1.1299999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="J17">
         <v>619</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10">
       <c r="A18">
         <v>17802</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C18">
         <v>130</v>
       </c>
       <c r="D18" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="E18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F18">
         <v>1.35</v>
@@ -1155,7 +1124,7 @@
         <v>443</v>
       </c>
       <c r="H18" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="I18">
         <v>0.47</v>
@@ -1164,53 +1133,53 @@
         <v>637</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10">
       <c r="A19">
         <v>17822</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C19">
         <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="E19" t="s">
         <v>60</v>
       </c>
       <c r="F19">
-        <v>1.1399999999999999</v>
+        <v>1.14</v>
       </c>
       <c r="G19">
         <v>438</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10">
       <c r="A20">
         <v>8837</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="C20">
         <v>118</v>
       </c>
       <c r="D20" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="E20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F20">
-        <v>1.1200000000000001</v>
+        <v>1.12</v>
       </c>
       <c r="G20">
         <v>445</v>
       </c>
       <c r="H20" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="I20">
         <v>9.94</v>
@@ -1219,30 +1188,30 @@
         <v>644</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10">
       <c r="A21">
         <v>17859</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C21">
         <v>88</v>
       </c>
       <c r="D21" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="E21" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F21">
-        <v>1.1200000000000001</v>
+        <v>1.12</v>
       </c>
       <c r="G21">
         <v>448</v>
       </c>
       <c r="H21" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="I21">
         <v>7.45</v>
@@ -1251,30 +1220,30 @@
         <v>765</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10">
       <c r="A22">
         <v>17886</v>
       </c>
       <c r="B22" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="C22">
         <v>57</v>
       </c>
       <c r="D22" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="E22" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F22">
-        <v>1.1100000000000001</v>
+        <v>1.11</v>
       </c>
       <c r="G22">
         <v>452</v>
       </c>
       <c r="H22" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="I22">
         <v>0.9</v>
@@ -1283,21 +1252,21 @@
         <v>666</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10">
       <c r="A23">
         <v>17809</v>
       </c>
       <c r="B23" t="s">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="C23">
         <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="E23" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F23">
         <v>0.92</v>
@@ -1306,7 +1275,7 @@
         <v>433</v>
       </c>
       <c r="H23" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="I23">
         <v>0.16</v>
@@ -1315,21 +1284,21 @@
         <v>615</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10">
       <c r="A24">
         <v>17809</v>
       </c>
       <c r="B24" t="s">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="C24">
         <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="E24" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F24">
         <v>0.92</v>
@@ -1338,21 +1307,21 @@
         <v>433</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10">
       <c r="A25">
         <v>17822</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C25">
         <v>23</v>
       </c>
       <c r="D25" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="E25" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="F25">
         <v>0.91</v>
@@ -1361,21 +1330,21 @@
         <v>438</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10">
       <c r="A26">
         <v>17859</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C26">
         <v>61</v>
       </c>
       <c r="D26" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="E26" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="F26">
         <v>0.89</v>
@@ -1385,7 +1354,6 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>